--- a/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>1346</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3275</v>
+        <v>3059</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0984247112202636</v>
+        <v>0.09842471122026361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02508663744321205</v>
+        <v>0.02479028727731989</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2395046904537</v>
+        <v>0.2237204712110994</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>2128</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>801</v>
+        <v>753</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5212</v>
+        <v>4993</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.080110407397988</v>
+        <v>0.08011040739798797</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03017071425526926</v>
+        <v>0.02833666087857735</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1962478688043187</v>
+        <v>0.1879848167974737</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>3474</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1548</v>
+        <v>1673</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6118</v>
+        <v>6355</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08633528722836516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03846305840548341</v>
+        <v>0.04159157834493056</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1520613976269223</v>
+        <v>0.1579536143458243</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>9275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6197</v>
+        <v>6569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11476</v>
+        <v>11502</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6782766848982262</v>
+        <v>0.6782766848982263</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4531429477411863</v>
+        <v>0.4803566301465745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8392134947916378</v>
+        <v>0.8411119494674425</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -833,19 +833,19 @@
         <v>16197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12573</v>
+        <v>12585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19573</v>
+        <v>19607</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6098556086841317</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4733949533775977</v>
+        <v>0.4738549154676078</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7369808216925481</v>
+        <v>0.7382577437186717</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>55</v>
@@ -854,19 +854,19 @@
         <v>25473</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21120</v>
+        <v>20739</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29733</v>
+        <v>29673</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6331113644819458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5249317200440498</v>
+        <v>0.515450741847888</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7390000461777018</v>
+        <v>0.7375040386067374</v>
       </c>
     </row>
     <row r="6">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3288</v>
+        <v>2763</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02547601239794536</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1238144492360887</v>
+        <v>0.1040242351672405</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3849</v>
+        <v>4131</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01681692727664678</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0956774426469829</v>
+        <v>0.1026852769213733</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>1535</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4113</v>
+        <v>3832</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1122490374086004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03048929652200788</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3007367072297975</v>
+        <v>0.2801973788733708</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -967,19 +967,19 @@
         <v>5394</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2890</v>
+        <v>2832</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8950</v>
+        <v>8937</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2031123026655275</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1087963902196882</v>
+        <v>0.1066374171943442</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.336968684144215</v>
+        <v>0.3364907228961465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -988,19 +988,19 @@
         <v>6929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4083</v>
+        <v>3905</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10818</v>
+        <v>11078</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1722286331190988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1014803619260241</v>
+        <v>0.09705040210380893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2688675731588662</v>
+        <v>0.2753370905474213</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>1519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4084</v>
+        <v>4278</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1110495664729097</v>
+        <v>0.1110495664729098</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0256413665811162</v>
+        <v>0.02474309541222829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2986643176449522</v>
+        <v>0.3128691487689191</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1038,19 +1038,19 @@
         <v>2163</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4639</v>
+        <v>4914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0814456688544075</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02121179712577394</v>
+        <v>0.02027165002852141</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1746634301618006</v>
+        <v>0.1850212006189479</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1059,19 +1059,19 @@
         <v>3682</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1531</v>
+        <v>1556</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7123</v>
+        <v>6699</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09150778789394343</v>
+        <v>0.09150778789394344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03804946393461839</v>
+        <v>0.03866230791831423</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1770392034872727</v>
+        <v>0.1665079885007566</v>
       </c>
     </row>
     <row r="9">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2399</v>
+        <v>2625</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02825718399645935</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1420488072384128</v>
+        <v>0.1554806638668416</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1184,19 +1184,19 @@
         <v>3490</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1419</v>
+        <v>1552</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6740</v>
+        <v>6960</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1015716417668717</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04130564754482759</v>
+        <v>0.04517656981667729</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1961578687861769</v>
+        <v>0.2025727394169401</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1205,19 +1205,19 @@
         <v>3967</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1653</v>
+        <v>1864</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7311</v>
+        <v>7399</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07741282779751693</v>
+        <v>0.07741282779751694</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03224828285055643</v>
+        <v>0.03638274367409093</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.142667210669787</v>
+        <v>0.144389854597905</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>6200</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3425</v>
+        <v>3391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9734</v>
+        <v>9692</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3671974064961324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2028580352417319</v>
+        <v>0.200827362573503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5764456119436553</v>
+        <v>0.5739548414961475</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1255,19 +1255,19 @@
         <v>17961</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13655</v>
+        <v>13792</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21978</v>
+        <v>22248</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5227710085419979</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3974290834506543</v>
+        <v>0.4014220778951952</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.639678794524746</v>
+        <v>0.6475469257352651</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -1276,19 +1276,19 @@
         <v>24162</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18649</v>
+        <v>18979</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29576</v>
+        <v>29714</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4715058989760467</v>
+        <v>0.4715058989760466</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3639246376913819</v>
+        <v>0.3703501242742356</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5771419275773725</v>
+        <v>0.5798444650196207</v>
       </c>
     </row>
     <row r="12">
@@ -1318,19 +1318,19 @@
         <v>1990</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>566</v>
+        <v>473</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4751</v>
+        <v>4615</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05791716812333898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01646415979750817</v>
+        <v>0.01377235604669794</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1382877541075076</v>
+        <v>0.1343075415183722</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1339,19 +1339,19 @@
         <v>1990</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4756</v>
+        <v>4773</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03883211814990425</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01109983709754349</v>
+        <v>0.01123035455798847</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09281624831497381</v>
+        <v>0.09314853316892799</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>4142</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1723</v>
+        <v>1750</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7749</v>
+        <v>7609</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2453125560006229</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1020490520286845</v>
+        <v>0.1036492167200568</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4589284541133481</v>
+        <v>0.450608780637847</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1389,19 +1389,19 @@
         <v>7125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4132</v>
+        <v>3902</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11315</v>
+        <v>11293</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2073726423142923</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.120250325189938</v>
+        <v>0.1135720337229366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3293142937612097</v>
+        <v>0.3286939600481503</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1410,19 +1410,19 @@
         <v>11267</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7302</v>
+        <v>7019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15941</v>
+        <v>16193</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2198747236859061</v>
+        <v>0.219874723685906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1425007463699751</v>
+        <v>0.1369717137947192</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3110781390337456</v>
+        <v>0.3159835165675972</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>6066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3241</v>
+        <v>3010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9603</v>
+        <v>9394</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3592328535067853</v>
+        <v>0.3592328535067854</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1919455092449563</v>
+        <v>0.1782340097685975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5686870902225543</v>
+        <v>0.5563480060610011</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1463,16 +1463,16 @@
         <v>1601</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7352</v>
+        <v>7325</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1103675392534991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04660700186916052</v>
+        <v>0.04659460232051154</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2139875708782636</v>
+        <v>0.2131972725741439</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -1481,19 +1481,19 @@
         <v>9858</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5954</v>
+        <v>5983</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14570</v>
+        <v>14893</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.192374431390626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1161884398209073</v>
+        <v>0.1167624962700687</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2843173171839459</v>
+        <v>0.2906170767664582</v>
       </c>
     </row>
     <row r="15">
@@ -1598,19 +1598,19 @@
         <v>5497</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2559</v>
+        <v>2543</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9455</v>
+        <v>9320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1879805564960241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08751207267267906</v>
+        <v>0.08698324857140392</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3233474185796973</v>
+        <v>0.318748912866231</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1619,19 +1619,19 @@
         <v>5497</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9804</v>
+        <v>10205</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.114550816591877</v>
+        <v>0.1145508165918771</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05337139264876569</v>
+        <v>0.05342175465434363</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2043120651579279</v>
+        <v>0.2126660752340813</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>11983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7625</v>
+        <v>7752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15732</v>
+        <v>15365</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6392837443740337</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4068159880341976</v>
+        <v>0.413556195897198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8393153269025</v>
+        <v>0.819714790997457</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1669,19 +1669,19 @@
         <v>19918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16239</v>
+        <v>15921</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24072</v>
+        <v>23644</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6812030384505754</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5553843759007261</v>
+        <v>0.5445008771682154</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8232387264519959</v>
+        <v>0.8086104110565846</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>46</v>
@@ -1690,19 +1690,19 @@
         <v>31901</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26609</v>
+        <v>26254</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37214</v>
+        <v>37058</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6648283509914976</v>
+        <v>0.6648283509914977</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.554534467712432</v>
+        <v>0.5471436123008944</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7755465305996909</v>
+        <v>0.7722981350843275</v>
       </c>
     </row>
     <row r="18">
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3720</v>
+        <v>3032</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03627588145657334</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1984385039008434</v>
+        <v>0.1617398973315722</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1756,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3054</v>
+        <v>3349</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.01417023435722295</v>
+        <v>0.01417023435722296</v>
       </c>
       <c r="V18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06363611179300102</v>
+        <v>0.06979065296216633</v>
       </c>
     </row>
     <row r="19">
@@ -1795,19 +1795,19 @@
         <v>1932</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5249</v>
+        <v>4802</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06608162868815524</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02081762416901852</v>
+        <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1795158487446408</v>
+        <v>0.1642412677539924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1816,19 +1816,19 @@
         <v>1932</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5640</v>
+        <v>5130</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04026855047697178</v>
+        <v>0.04026855047697179</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01278538478352187</v>
+        <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1175396243593606</v>
+        <v>0.1069193637704085</v>
       </c>
     </row>
     <row r="20">
@@ -1845,19 +1845,19 @@
         <v>6081</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2578</v>
+        <v>2715</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10315</v>
+        <v>10195</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3244403741693929</v>
+        <v>0.3244403741693928</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1375287197487842</v>
+        <v>0.1448462967000494</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5503105927916353</v>
+        <v>0.54389948128654</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1866,19 +1866,19 @@
         <v>1893</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5149</v>
+        <v>5052</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.06473477636524523</v>
+        <v>0.06473477636524522</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01969127042701909</v>
+        <v>0.01973397915669957</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1760773251242261</v>
+        <v>0.1727792103402521</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1887,19 +1887,19 @@
         <v>7974</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4123</v>
+        <v>4107</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>13356</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1661820475824305</v>
+        <v>0.1661820475824306</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0859208916279027</v>
+        <v>0.08559599435292548</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2783359157289354</v>
+        <v>0.278337615323875</v>
       </c>
     </row>
     <row r="21">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3078</v>
+        <v>3208</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02605450628069277</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1315002374570519</v>
+        <v>0.137065619886</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2012,19 +2012,19 @@
         <v>3272</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1167</v>
+        <v>1105</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7305</v>
+        <v>7426</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05886584242867991</v>
+        <v>0.05886584242867989</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02100448762084006</v>
+        <v>0.01987669703286785</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1314492128979449</v>
+        <v>0.1336155024615936</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2033,19 +2033,19 @@
         <v>3881</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1464</v>
+        <v>1344</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8462</v>
+        <v>8488</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0491417893093981</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01853476288543678</v>
+        <v>0.01701390129255736</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1071396371193097</v>
+        <v>0.1074622515119223</v>
       </c>
     </row>
     <row r="23">
@@ -2062,19 +2062,19 @@
         <v>9499</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5842</v>
+        <v>5955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13842</v>
+        <v>13509</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.405798111291995</v>
+        <v>0.4057981112919949</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.249566686118112</v>
+        <v>0.2544139522223076</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5913162415597917</v>
+        <v>0.5771012555217445</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -2083,19 +2083,19 @@
         <v>30545</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24687</v>
+        <v>24664</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>36778</v>
+        <v>36400</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5496031640539674</v>
+        <v>0.5496031640539673</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4442002717515733</v>
+        <v>0.4437958224152189</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6617592685188646</v>
+        <v>0.6549568029312038</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>66</v>
@@ -2104,19 +2104,19 @@
         <v>40044</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>32812</v>
+        <v>33399</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46861</v>
+        <v>46962</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5069847237206763</v>
+        <v>0.5069847237206764</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4154218836157001</v>
+        <v>0.4228578847859925</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5932948033253519</v>
+        <v>0.5945700232736951</v>
       </c>
     </row>
     <row r="24">
@@ -2146,19 +2146,19 @@
         <v>1954</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5731</v>
+        <v>5468</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03515740628542671</v>
+        <v>0.0351574062854267</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007487436575720477</v>
+        <v>0.007503469844059711</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1031115552147346</v>
+        <v>0.09838177740242815</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2167,19 +2167,19 @@
         <v>1954</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5847</v>
+        <v>5381</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02473806570405772</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005181733791045212</v>
+        <v>0.005283727546481343</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0740252952155243</v>
+        <v>0.0681288282230247</v>
       </c>
     </row>
     <row r="25">
@@ -2196,19 +2196,19 @@
         <v>1980</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5208</v>
+        <v>5205</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08459386761306474</v>
+        <v>0.08459386761306475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02713147265077856</v>
+        <v>0.02718054740266036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2225044131742737</v>
+        <v>0.2223408876470565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2217,19 +2217,19 @@
         <v>6860</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3185</v>
+        <v>3406</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12138</v>
+        <v>12538</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1234359832236863</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05731529351097006</v>
+        <v>0.06128521145568632</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2184051769049888</v>
+        <v>0.2256084772358137</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2238,19 +2238,19 @@
         <v>8840</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5142</v>
+        <v>4877</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14871</v>
+        <v>15178</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1119246325807427</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06510234741841148</v>
+        <v>0.06174617484183666</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1882829729064417</v>
+        <v>0.1921623986335453</v>
       </c>
     </row>
     <row r="26">
@@ -2267,19 +2267,19 @@
         <v>11319</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7594</v>
+        <v>7262</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15594</v>
+        <v>15099</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4835535148142476</v>
+        <v>0.4835535148142477</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3244368030621327</v>
+        <v>0.3102397629276888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6661984389556895</v>
+        <v>0.6450250071223785</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2288,19 +2288,19 @@
         <v>12946</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8432</v>
+        <v>8348</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18974</v>
+        <v>18513</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2329376040082398</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1517156972333449</v>
+        <v>0.1502000679535848</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3414138801897095</v>
+        <v>0.3331125648216758</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -2309,19 +2309,19 @@
         <v>24265</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18647</v>
+        <v>18604</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31346</v>
+        <v>31172</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3072107886851251</v>
+        <v>0.307210788685125</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2360837765947485</v>
+        <v>0.2355413919036099</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.396866962631338</v>
+        <v>0.3946644688788603</v>
       </c>
     </row>
     <row r="27">
@@ -2413,19 +2413,19 @@
         <v>2433</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>999</v>
+        <v>923</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5411</v>
+        <v>4948</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03346042764996544</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01373338448077071</v>
+        <v>0.01269835772638239</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07441840569717512</v>
+        <v>0.06804213289107425</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>25</v>
@@ -2434,19 +2434,19 @@
         <v>14386</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9180</v>
+        <v>9615</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20899</v>
+        <v>20831</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09871188642479489</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0629909197013036</v>
+        <v>0.06597889128555283</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1434058297937465</v>
+        <v>0.14294000414911</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -2455,19 +2455,19 @@
         <v>16819</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11706</v>
+        <v>11663</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>23834</v>
+        <v>23986</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0769919915570879</v>
+        <v>0.07699199155708791</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05358839461317697</v>
+        <v>0.05338922796039912</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1091062447264875</v>
+        <v>0.1098044557532624</v>
       </c>
     </row>
     <row r="29">
@@ -2484,19 +2484,19 @@
         <v>36958</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30286</v>
+        <v>29712</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44090</v>
+        <v>44015</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.508266276372925</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4165093325904505</v>
+        <v>0.4086178510882298</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6063565578378137</v>
+        <v>0.605319284388534</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>158</v>
@@ -2505,19 +2505,19 @@
         <v>84622</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>75572</v>
+        <v>75214</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>92384</v>
+        <v>93702</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.5806623544428813</v>
+        <v>0.5806623544428812</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5185606920846904</v>
+        <v>0.5161021327642697</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6339207432776652</v>
+        <v>0.6429668587626333</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>213</v>
@@ -2526,19 +2526,19 @@
         <v>121580</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>110783</v>
+        <v>110024</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>132400</v>
+        <v>133417</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.556564269372631</v>
+        <v>0.5565642693726311</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5071411488289446</v>
+        <v>0.5036652318917783</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6060957627911822</v>
+        <v>0.6107502755894358</v>
       </c>
     </row>
     <row r="30">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3811</v>
+        <v>3378</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009351117435697599</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05240711767244532</v>
+        <v>0.04645698617703969</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2576,19 +2576,19 @@
         <v>4620</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2341</v>
+        <v>2080</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9201</v>
+        <v>8978</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03170481320464064</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01606302153302937</v>
+        <v>0.01426937547962796</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06313550611782044</v>
+        <v>0.0616074083405</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -2597,19 +2597,19 @@
         <v>5300</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2596</v>
+        <v>2587</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10527</v>
+        <v>10449</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02426406121039653</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01188298759864866</v>
+        <v>0.01184117403037198</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04819109625803874</v>
+        <v>0.04783099555944682</v>
       </c>
     </row>
     <row r="31">
@@ -2626,19 +2626,19 @@
         <v>7658</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4183</v>
+        <v>3978</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12216</v>
+        <v>12596</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1053124773299881</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05753336970674283</v>
+        <v>0.05470865318243589</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1680075681447912</v>
+        <v>0.1732223883033141</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -2647,19 +2647,19 @@
         <v>21312</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15271</v>
+        <v>15817</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28594</v>
+        <v>30155</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1462375441156728</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1047898322232408</v>
+        <v>0.1085325354459935</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1962041917089439</v>
+        <v>0.2069188470793517</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -2668,19 +2668,19 @@
         <v>28969</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>21724</v>
+        <v>21510</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>36905</v>
+        <v>37209</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.132615041803405</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09944745893506407</v>
+        <v>0.0984698277928054</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1689411094262313</v>
+        <v>0.1703354354240078</v>
       </c>
     </row>
     <row r="32">
@@ -2697,19 +2697,19 @@
         <v>24985</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18554</v>
+        <v>18642</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31817</v>
+        <v>32158</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3436097012114239</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2551724896445453</v>
+        <v>0.2563804896982615</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4375628999808953</v>
+        <v>0.4422597120709089</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -2718,19 +2718,19 @@
         <v>20794</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14983</v>
+        <v>14981</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28796</v>
+        <v>28231</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1426834018120105</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1028083532247803</v>
+        <v>0.1027971393207897</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1975960145220623</v>
+        <v>0.1937138079504133</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>74</v>
@@ -2739,19 +2739,19 @@
         <v>45779</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>36381</v>
+        <v>36266</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>55576</v>
+        <v>55505</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2095646360564794</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1665454751939071</v>
+        <v>0.1660168399696089</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2544141961562119</v>
+        <v>0.2540893156771922</v>
       </c>
     </row>
     <row r="33">
